--- a/01-Sprint_Backlog-(144)-(Bill Payment System).xlsx
+++ b/01-Sprint_Backlog-(144)-(Bill Payment System).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="P62oxkItpZEHnUWYkUpxR9MVfRhfkuyC7bUZ/n3JcmKeiPuPrldenW9a2YCi/iM7JFk90njEIVhfpuHnhh7ACQ==" workbookSaltValue="HeGC/tuLlhu7A0rF8NoUxQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Cover Page" sheetId="8" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="74">
   <si>
     <t>Task</t>
   </si>
@@ -332,9 +332,6 @@
   </si>
   <si>
     <t>Vendor should be allowed to update the registered vendor details as and when required</t>
-  </si>
-  <si>
-    <t>Nitish,Divya,finny,Sumanth,Syamanth</t>
   </si>
   <si>
     <t>User on login should be able to see the available services and search option based on category-bill type/vendor and should be able see the bill details.</t>
@@ -3218,7 +3215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -3290,7 +3287,7 @@
     </row>
     <row r="8" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="84" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="85"/>
       <c r="D8" s="85"/>
@@ -3442,7 +3439,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E25" s="32"/>
       <c r="F25" s="32"/>
@@ -3741,7 +3738,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U13" sqref="U13"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3817,7 +3814,7 @@
         <v>56</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E3" s="77">
         <v>0.5</v>
@@ -3845,7 +3842,7 @@
         <v>57</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="77">
         <v>0.5</v>
@@ -3873,7 +3870,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="77">
         <v>0.5</v>
@@ -3901,14 +3898,14 @@
         <v>59</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="77">
         <v>0.5</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -3929,7 +3926,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="77">
         <v>0.5</v>
@@ -3957,7 +3954,7 @@
         <v>61</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="77">
         <v>0.5</v>
@@ -3985,7 +3982,7 @@
         <v>62</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="77">
         <v>1</v>
@@ -4013,7 +4010,7 @@
         <v>63</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="77">
         <v>0.5</v>
@@ -4038,10 +4035,10 @@
         <v>47</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11" s="77">
         <v>0.5</v>
@@ -4064,10 +4061,10 @@
         <v>46</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="77">
         <v>0.5</v>
@@ -4089,10 +4086,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E13" s="77">
         <v>0.5</v>
@@ -4115,10 +4112,10 @@
         <v>47</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E14" s="77">
         <v>0.5</v>
@@ -4140,10 +4137,10 @@
         <v>46</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" s="77">
         <v>0.5</v>
@@ -4425,9 +4422,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4512,10 +4509,10 @@
         <v>47</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E4" s="77">
         <v>1</v>
@@ -4540,10 +4537,10 @@
         <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E5" s="77">
         <v>2</v>
@@ -4570,10 +4567,10 @@
         <v>48</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E6" s="77">
         <v>1</v>
@@ -4598,10 +4595,10 @@
         <v>47</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E7" s="77">
         <v>2</v>
@@ -4626,10 +4623,10 @@
         <v>46</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E8" s="77">
         <v>1</v>
@@ -5189,18 +5186,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5369,14 +5366,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47BCCC64-3980-40D2-8C4F-F5BACE67ECB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -5389,6 +5378,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="951c5514-b77c-4532-82d5-a05f2f7d58e2"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2B9EEEF-7393-4E57-9716-D967A23AC816}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
